--- a/experiment/nonconvex/MitsosBarton2006Ex313/compare/Alpha-Zero/MitsosBarton2006Ex313_Alpha-Zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/compare/Alpha-Zero/MitsosBarton2006Ex313_Alpha-Zero.xlsx
@@ -473,13 +473,13 @@
         <v>-0.5040000041934606</v>
       </c>
       <c r="E2">
-        <v>0.0161499</v>
+        <v>0.0238316</v>
       </c>
       <c r="F2">
-        <v>0.0324711</v>
+        <v>0.0885165</v>
       </c>
       <c r="G2">
-        <v>0.01808316086956522</v>
+        <v>0.03757509242424242</v>
       </c>
       <c r="H2">
         <v>5390</v>
